--- a/Varmo/Rev A2/Varmo - Rev A2 - BOM.xlsx
+++ b/Varmo/Rev A2/Varmo - Rev A2 - BOM.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="156">
   <si>
     <t>Qty</t>
   </si>
@@ -153,9 +153,6 @@
     <t>R24</t>
   </si>
   <si>
-    <t>MCMR06X000 PTL</t>
-  </si>
-  <si>
     <t>86T3500</t>
   </si>
   <si>
@@ -484,6 +481,45 @@
   </si>
   <si>
     <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>MCMR06X1000FTL</t>
+  </si>
+  <si>
+    <t>MCMR06X1002FTL</t>
+  </si>
+  <si>
+    <t>MCMR06X1001FTL</t>
+  </si>
+  <si>
+    <t>22-05-7038</t>
+  </si>
+  <si>
+    <t>22-02-7038</t>
+  </si>
+  <si>
+    <t>MCMR06X3300FTL</t>
+  </si>
+  <si>
+    <t>OVS-0603</t>
+  </si>
+  <si>
+    <t>EC20A1824401</t>
+  </si>
+  <si>
+    <t>HCPL-0201-500E</t>
+  </si>
+  <si>
+    <t>HCPL-0631-500E</t>
+  </si>
+  <si>
+    <t>MC41605A12W-VNMLW</t>
+  </si>
+  <si>
+    <t>LT1813CS8#PBF</t>
+  </si>
+  <si>
+    <t>MMBT2222ALT1G</t>
   </si>
 </sst>
 </file>
@@ -499,12 +535,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -519,9 +561,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,7 +887,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +898,7 @@
     <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -863,953 +907,1227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9731601</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9731610</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9731636</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>330</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8200</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1757026</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12">
-        <v>9731601</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13">
-        <v>9731610</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>330</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21">
-        <v>8200</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23">
-        <v>1757026</v>
-      </c>
-      <c r="J23" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" t="s">
-        <v>122</v>
-      </c>
-      <c r="H37" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="B41" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1470776</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H41" t="s">
-        <v>136</v>
-      </c>
-      <c r="I41">
-        <v>1470776</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="K41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L41" t="s">
-        <v>143</v>
-      </c>
+      <c r="M41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
